--- a/covid_reopening.xlsx
+++ b/covid_reopening.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jialuli/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jialuli/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="42860" yWindow="1840" windowWidth="17920" windowHeight="18620"/>
+    <workbookView xWindow="1780" yWindow="460" windowWidth="27020" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="179">
   <si>
     <t>geometry</t>
   </si>
@@ -555,6 +555,12 @@
   </si>
   <si>
     <t>Travel Restriction April 21st</t>
+  </si>
+  <si>
+    <t>Coast</t>
+  </si>
+  <si>
+    <t>North East</t>
   </si>
 </sst>
 </file>
@@ -593,12 +599,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -613,11 +625,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -932,21 +946,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="31.83203125" customWidth="1"/>
-    <col min="5" max="6" width="37.1640625" customWidth="1"/>
-    <col min="7" max="7" width="42" customWidth="1"/>
+    <col min="5" max="5" width="31.83203125" customWidth="1"/>
+    <col min="6" max="7" width="37.1640625" customWidth="1"/>
+    <col min="8" max="8" width="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -957,19 +971,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -979,20 +996,20 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
         <v>175</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1002,20 +1019,20 @@
       <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
       <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>174</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1025,20 +1042,20 @@
       <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
         <v>175</v>
       </c>
-      <c r="G4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1048,20 +1065,20 @@
       <c r="C5" t="s">
         <v>21</v>
       </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5" t="s">
         <v>22</v>
       </c>
       <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
         <v>175</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1071,20 +1088,20 @@
       <c r="C6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
         <v>175</v>
       </c>
-      <c r="G6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1094,20 +1111,20 @@
       <c r="C7" t="s">
         <v>28</v>
       </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
         <v>175</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -1118,19 +1135,22 @@
         <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>178</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
         <v>174</v>
       </c>
-      <c r="G8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -1141,16 +1161,19 @@
         <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>178</v>
       </c>
       <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
         <v>15</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -1161,16 +1184,19 @@
         <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>178</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -1180,17 +1206,17 @@
       <c r="C11" t="s">
         <v>40</v>
       </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
       <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -1200,17 +1226,17 @@
       <c r="C12" t="s">
         <v>43</v>
       </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
       <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
         <v>15</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -1220,17 +1246,17 @@
       <c r="C13" t="s">
         <v>46</v>
       </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
       <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
         <v>15</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -1240,17 +1266,17 @@
       <c r="C14" t="s">
         <v>49</v>
       </c>
-      <c r="D14" t="s">
-        <v>9</v>
-      </c>
       <c r="E14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -1260,17 +1286,17 @@
       <c r="C15" t="s">
         <v>52</v>
       </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
       <c r="E15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>53</v>
       </c>
@@ -1280,17 +1306,17 @@
       <c r="C16" t="s">
         <v>55</v>
       </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16" t="s">
         <v>22</v>
       </c>
-      <c r="G16" t="s">
+      <c r="F16" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>56</v>
       </c>
@@ -1300,37 +1326,40 @@
       <c r="C17" t="s">
         <v>58</v>
       </c>
-      <c r="D17" t="s">
-        <v>9</v>
-      </c>
       <c r="E17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="D18" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>62</v>
       </c>
@@ -1340,17 +1369,17 @@
       <c r="C19" t="s">
         <v>64</v>
       </c>
-      <c r="D19" t="s">
-        <v>9</v>
-      </c>
       <c r="E19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>66</v>
       </c>
@@ -1360,17 +1389,17 @@
       <c r="C20" t="s">
         <v>68</v>
       </c>
-      <c r="D20" t="s">
-        <v>9</v>
-      </c>
       <c r="E20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>69</v>
       </c>
@@ -1380,17 +1409,17 @@
       <c r="C21" t="s">
         <v>71</v>
       </c>
-      <c r="D21" t="s">
-        <v>9</v>
-      </c>
       <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" t="s">
         <v>15</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>72</v>
       </c>
@@ -1400,37 +1429,40 @@
       <c r="C22" t="s">
         <v>74</v>
       </c>
-      <c r="D22" t="s">
-        <v>9</v>
-      </c>
       <c r="E22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D23" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>78</v>
       </c>
@@ -1440,17 +1472,17 @@
       <c r="C24" t="s">
         <v>80</v>
       </c>
-      <c r="D24" t="s">
-        <v>9</v>
-      </c>
       <c r="E24" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="F24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>81</v>
       </c>
@@ -1460,17 +1492,17 @@
       <c r="C25" t="s">
         <v>83</v>
       </c>
-      <c r="D25" t="s">
-        <v>22</v>
-      </c>
       <c r="E25" t="s">
         <v>22</v>
       </c>
-      <c r="G25" t="s">
+      <c r="F25" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>84</v>
       </c>
@@ -1480,37 +1512,40 @@
       <c r="C26" t="s">
         <v>86</v>
       </c>
-      <c r="D26" t="s">
-        <v>9</v>
-      </c>
       <c r="E26" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="27" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="D27" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>90</v>
       </c>
@@ -1520,17 +1555,17 @@
       <c r="C28" t="s">
         <v>92</v>
       </c>
-      <c r="D28" t="s">
-        <v>9</v>
-      </c>
       <c r="E28" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>93</v>
       </c>
@@ -1540,17 +1575,17 @@
       <c r="C29" t="s">
         <v>95</v>
       </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
       <c r="E29" t="s">
         <v>22</v>
       </c>
-      <c r="G29" t="s">
+      <c r="F29" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>96</v>
       </c>
@@ -1560,17 +1595,17 @@
       <c r="C30" t="s">
         <v>98</v>
       </c>
-      <c r="D30" t="s">
-        <v>9</v>
-      </c>
       <c r="E30" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>99</v>
       </c>
@@ -1581,16 +1616,19 @@
         <v>101</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>178</v>
       </c>
       <c r="E31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" t="s">
         <v>15</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>102</v>
       </c>
@@ -1600,17 +1638,17 @@
       <c r="C32" t="s">
         <v>104</v>
       </c>
-      <c r="D32" t="s">
-        <v>9</v>
-      </c>
       <c r="E32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" t="s">
         <v>15</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>105</v>
       </c>
@@ -1620,17 +1658,17 @@
       <c r="C33" t="s">
         <v>107</v>
       </c>
-      <c r="D33" t="s">
-        <v>9</v>
-      </c>
       <c r="E33" t="s">
-        <v>10</v>
-      </c>
-      <c r="G33" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="F33" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>108</v>
       </c>
@@ -1640,17 +1678,17 @@
       <c r="C34" t="s">
         <v>110</v>
       </c>
-      <c r="D34" t="s">
-        <v>9</v>
-      </c>
       <c r="E34" t="s">
-        <v>10</v>
-      </c>
-      <c r="G34" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="F34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>111</v>
       </c>
@@ -1660,17 +1698,17 @@
       <c r="C35" t="s">
         <v>113</v>
       </c>
-      <c r="D35" t="s">
-        <v>9</v>
-      </c>
       <c r="E35" t="s">
-        <v>10</v>
-      </c>
-      <c r="G35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>114</v>
       </c>
@@ -1680,17 +1718,17 @@
       <c r="C36" t="s">
         <v>116</v>
       </c>
-      <c r="D36" t="s">
-        <v>9</v>
-      </c>
       <c r="E36" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="F36" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>117</v>
       </c>
@@ -1700,17 +1738,17 @@
       <c r="C37" t="s">
         <v>119</v>
       </c>
-      <c r="D37" t="s">
-        <v>9</v>
-      </c>
       <c r="E37" t="s">
-        <v>10</v>
-      </c>
-      <c r="G37" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="F37" t="s">
+        <v>10</v>
+      </c>
+      <c r="H37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>120</v>
       </c>
@@ -1721,16 +1759,19 @@
         <v>122</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>178</v>
       </c>
       <c r="E38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" t="s">
         <v>15</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>123</v>
       </c>
@@ -1741,16 +1782,19 @@
         <v>125</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>178</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
-      </c>
-      <c r="G39" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="F39" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>126</v>
       </c>
@@ -1760,17 +1804,17 @@
       <c r="C40" t="s">
         <v>128</v>
       </c>
-      <c r="D40" t="s">
-        <v>9</v>
-      </c>
       <c r="E40" t="s">
-        <v>10</v>
-      </c>
-      <c r="G40" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" t="s">
+        <v>10</v>
+      </c>
+      <c r="H40" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>129</v>
       </c>
@@ -1780,17 +1824,17 @@
       <c r="C41" t="s">
         <v>131</v>
       </c>
-      <c r="D41" t="s">
-        <v>9</v>
-      </c>
       <c r="E41" t="s">
-        <v>10</v>
-      </c>
-      <c r="G41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="F41" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>132</v>
       </c>
@@ -1800,17 +1844,17 @@
       <c r="C42" t="s">
         <v>134</v>
       </c>
-      <c r="D42" t="s">
-        <v>22</v>
-      </c>
       <c r="E42" t="s">
         <v>22</v>
       </c>
-      <c r="G42" t="s">
+      <c r="F42" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H42" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>135</v>
       </c>
@@ -1821,36 +1865,42 @@
         <v>137</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>178</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
-      </c>
-      <c r="G43" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D44" t="s">
-        <v>9</v>
-      </c>
-      <c r="E44" t="s">
-        <v>10</v>
-      </c>
-      <c r="G44" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D44" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>141</v>
       </c>
@@ -1860,17 +1910,17 @@
       <c r="C45" t="s">
         <v>143</v>
       </c>
-      <c r="D45" t="s">
-        <v>9</v>
-      </c>
       <c r="E45" t="s">
-        <v>10</v>
-      </c>
-      <c r="G45" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="F45" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>144</v>
       </c>
@@ -1880,17 +1930,17 @@
       <c r="C46" t="s">
         <v>146</v>
       </c>
-      <c r="D46" t="s">
-        <v>9</v>
-      </c>
       <c r="E46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" t="s">
         <v>15</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>147</v>
       </c>
@@ -1900,17 +1950,17 @@
       <c r="C47" t="s">
         <v>149</v>
       </c>
-      <c r="D47" t="s">
-        <v>9</v>
-      </c>
       <c r="E47" t="s">
-        <v>10</v>
-      </c>
-      <c r="G47" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="F47" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>150</v>
       </c>
@@ -1921,16 +1971,19 @@
         <v>152</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>178</v>
       </c>
       <c r="E48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" t="s">
         <v>15</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>153</v>
       </c>
@@ -1940,17 +1993,17 @@
       <c r="C49" t="s">
         <v>155</v>
       </c>
-      <c r="D49" t="s">
-        <v>9</v>
-      </c>
       <c r="E49" t="s">
-        <v>10</v>
-      </c>
-      <c r="G49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>156</v>
       </c>
@@ -1960,17 +2013,17 @@
       <c r="C50" t="s">
         <v>158</v>
       </c>
-      <c r="D50" t="s">
-        <v>9</v>
-      </c>
       <c r="E50" t="s">
-        <v>10</v>
-      </c>
-      <c r="G50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" t="s">
+        <v>10</v>
+      </c>
+      <c r="H50" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>159</v>
       </c>
@@ -1980,17 +2033,17 @@
       <c r="C51" t="s">
         <v>161</v>
       </c>
-      <c r="D51" t="s">
-        <v>9</v>
-      </c>
       <c r="E51" t="s">
-        <v>10</v>
-      </c>
-      <c r="G51" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="F51" t="s">
+        <v>10</v>
+      </c>
+      <c r="H51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>162</v>
       </c>
@@ -2000,17 +2053,17 @@
       <c r="C52" t="s">
         <v>164</v>
       </c>
-      <c r="D52" t="s">
-        <v>9</v>
-      </c>
       <c r="E52" t="s">
-        <v>10</v>
-      </c>
-      <c r="G52" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="F52" t="s">
+        <v>10</v>
+      </c>
+      <c r="H52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>165</v>
       </c>
@@ -2020,17 +2073,17 @@
       <c r="C53" t="s">
         <v>167</v>
       </c>
-      <c r="D53" t="s">
-        <v>9</v>
-      </c>
       <c r="E53" t="s">
-        <v>10</v>
-      </c>
-      <c r="G53" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="F53" t="s">
+        <v>10</v>
+      </c>
+      <c r="H53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>168</v>
       </c>
@@ -2040,14 +2093,14 @@
       <c r="C54" t="s">
         <v>170</v>
       </c>
-      <c r="E54" t="s">
-        <v>10</v>
-      </c>
-      <c r="G54" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F54" t="s">
+        <v>10</v>
+      </c>
+      <c r="H54" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>171</v>
       </c>
@@ -2057,10 +2110,10 @@
       <c r="C55" t="s">
         <v>173</v>
       </c>
-      <c r="E55" t="s">
-        <v>10</v>
-      </c>
-      <c r="G55" t="s">
+      <c r="F55" t="s">
+        <v>10</v>
+      </c>
+      <c r="H55" t="s">
         <v>10</v>
       </c>
     </row>
